--- a/biology/Zoologie/Balanophyllia_europaea/Balanophyllia_europaea.xlsx
+++ b/biology/Zoologie/Balanophyllia_europaea/Balanophyllia_europaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanophyllia europaea, communément nommé dent de cochon, est un petit corail dur solitaire qui appartient à la famille des
 Dendrophylliidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dent de cochon est de forme ovale avec un aspect charnu, son diamètre à maturité oscille entre 3 et 4 cm pour une hauteur de 2 cm[2]. Sa teinte varie du beige au brun verdâtre, les tentacules du polype sont courts et plus ou moins translucides avec parfois des teintes rouges ou autres liées à la présence d'algues symbiotiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dent de cochon est de forme ovale avec un aspect charnu, son diamètre à maturité oscille entre 3 et 4 cm pour une hauteur de 2 cm. Sa teinte varie du beige au brun verdâtre, les tentacules du polype sont courts et plus ou moins translucides avec parfois des teintes rouges ou autres liées à la présence d'algues symbiotiques.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit corail madréporaire se rencontre uniquement en Mer Méditerranée. Il affectionne les zones lumineuses et se fixe sur les substrats durs comme les rochers ou les coquillages et ce jusqu'à une profondeur de 40 m[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit corail madréporaire se rencontre uniquement en Mer Méditerranée. Il affectionne les zones lumineuses et se fixe sur les substrats durs comme les rochers ou les coquillages et ce jusqu'à une profondeur de 40 m,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il affectionne les eaux peu profondes car c'est une espèce dite photophile[2], c'est-à-dire qu'elle a besoin de lumière pour la survie des micro-algues zooxanthelles avec lesquelles il vit en symbiose[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les eaux peu profondes car c'est une espèce dite photophile, c'est-à-dire qu'elle a besoin de lumière pour la survie des micro-algues zooxanthelles avec lesquelles il vit en symbiose.
 </t>
         </is>
       </c>
